--- a/P&L.xlsx
+++ b/P&L.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="180" windowWidth="14355" windowHeight="5070" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="240" windowWidth="14355" windowHeight="5010"/>
   </bookViews>
   <sheets>
     <sheet name="Conceptos" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="92">
   <si>
     <t>&lt;bold&gt;</t>
   </si>
@@ -207,24 +207,15 @@
     <t>C00000</t>
   </si>
   <si>
-    <t>Operating Revenue</t>
-  </si>
-  <si>
     <t>Product sales</t>
   </si>
   <si>
     <t>Service sales</t>
   </si>
   <si>
-    <t>Operating Expenses</t>
-  </si>
-  <si>
     <t>Cost of goods sold</t>
   </si>
   <si>
-    <t>Overhead</t>
-  </si>
-  <si>
     <t>Rent</t>
   </si>
   <si>
@@ -298,6 +289,12 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t>#ffeeb7</t>
+  </si>
+  <si>
+    <t>#ffc819</t>
   </si>
 </sst>
 </file>
@@ -1047,16 +1044,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" style="2" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="1" customWidth="1"/>
@@ -1070,25 +1067,25 @@
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D1" s="29" t="s">
         <v>34</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F1" s="67" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G1" s="67" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H1" s="29" t="s">
         <v>2</v>
@@ -1106,7 +1103,7 @@
         <v>17</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>5</v>
@@ -1117,13 +1114,13 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -1132,7 +1129,7 @@
       <c r="H2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J2" t="s">
@@ -1145,7 +1142,7 @@
         <v>18</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -1156,13 +1153,13 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="64" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" s="28">
         <v>12300</v>
@@ -1177,7 +1174,7 @@
         <v>11000</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>10</v>
@@ -1200,13 +1197,13 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" s="64" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" s="28">
         <v>3000</v>
@@ -1221,7 +1218,7 @@
         <v>3200</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>10</v>
@@ -1244,13 +1241,13 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="64" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B5" s="64" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C5" s="64" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D5" s="65">
         <f>D3+D4</f>
@@ -1266,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>11</v>
@@ -1286,13 +1283,13 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
@@ -1314,7 +1311,7 @@
         <v>18</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N6" s="1">
         <v>5</v>
@@ -1325,13 +1322,13 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B7" s="64" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D7" s="28">
         <v>-7000</v>
@@ -1346,7 +1343,7 @@
         <v>-6500</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>10</v>
@@ -1369,13 +1366,13 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="64" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B8" s="64" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C8" s="64" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D8" s="65">
         <f>D5+D7</f>
@@ -1391,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>11</v>
@@ -1411,13 +1408,13 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
@@ -1439,7 +1436,7 @@
         <v>18</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N9" s="1">
         <v>8</v>
@@ -1450,13 +1447,13 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D10" s="1">
         <v>-1500</v>
@@ -1471,7 +1468,7 @@
         <v>-1500</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>10</v>
@@ -1494,13 +1491,13 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D11" s="1">
         <v>-250</v>
@@ -1515,7 +1512,7 @@
         <v>-230</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>10</v>
@@ -1538,13 +1535,13 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D12" s="1">
         <v>-150</v>
@@ -1559,7 +1556,7 @@
         <v>-145</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>10</v>
@@ -1582,13 +1579,13 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D13" s="1">
         <v>-100</v>
@@ -1603,7 +1600,7 @@
         <v>-110</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>10</v>
@@ -1626,13 +1623,13 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B14" s="64" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D14" s="28">
         <f>SUM(D10:D13)</f>
@@ -1668,13 +1665,13 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="64" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C15" s="64" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D15" s="65">
         <f>D14+D8</f>
@@ -1690,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>11</v>
@@ -1710,13 +1707,13 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D16" s="28">
         <v>-500</v>
@@ -1731,7 +1728,7 @@
         <v>-550</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>10</v>
@@ -1754,13 +1751,13 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B17" s="64" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D17" s="66">
         <f>D15+D16</f>
@@ -1796,13 +1793,13 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B18" s="64" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D18" s="66">
         <v>-500</v>
@@ -1840,11 +1837,11 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="64" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="64" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D19" s="65">
         <f>D17+D18</f>
@@ -1860,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>11</v>
@@ -1869,7 +1866,7 @@
         <v>8</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N19" s="1">
         <v>19</v>
@@ -1883,13 +1880,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>OpcionesTunning!$B$2:$B$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>I2:I19</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>OpcionesTunning!$C$2:$C$3</xm:f>
@@ -1937,7 +1928,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1969,7 +1960,7 @@
         <v>20</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1992,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2101,8 +2092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4:Y4"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
